--- a/informe_Final/Tablas.xlsx
+++ b/informe_Final/Tablas.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Expedición Pacífico\Ictioplancton_ExPacifico2021\informe_Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B113F6-F5B6-4B31-8D27-7C41ACAE4939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7169DC96-38A1-4EA2-BC05-5E4F2D898F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" activeTab="1" xr2:uid="{7187F425-6876-468E-B507-564C7A5453FE}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" activeTab="4" xr2:uid="{7187F425-6876-468E-B507-564C7A5453FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla 1" sheetId="1" r:id="rId1"/>
     <sheet name="Transectos" sheetId="2" r:id="rId2"/>
     <sheet name="Sectores" sheetId="3" r:id="rId3"/>
     <sheet name="Mareas" sheetId="4" r:id="rId4"/>
+    <sheet name="Tabla 2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="40">
   <si>
     <t>Variable</t>
   </si>
@@ -135,6 +136,30 @@
   </si>
   <si>
     <t>gl</t>
+  </si>
+  <si>
+    <t>amarales con los demass si</t>
+  </si>
+  <si>
+    <t>&lt; 0.06</t>
+  </si>
+  <si>
+    <t>Transectos</t>
+  </si>
+  <si>
+    <t>Kruskal-Wallis</t>
+  </si>
+  <si>
+    <t>Sectores</t>
+  </si>
+  <si>
+    <t>Wilcoxon</t>
+  </si>
+  <si>
+    <t>Mareas</t>
+  </si>
+  <si>
+    <t>Autocorrelación Espacial</t>
   </si>
 </sst>
 </file>
@@ -242,20 +267,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -265,21 +283,16 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -599,7 +612,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E22"/>
+      <selection activeCell="B1" sqref="B1:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,15 +621,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -634,10 +647,10 @@
       <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -645,53 +658,53 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <v>0.33</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="C3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="5">
         <v>0.35</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="E3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <v>-0.05</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="6">
         <v>0.49</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="7"/>
+      <c r="E4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="5">
         <v>0.09</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>0.09</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="5">
         <v>0.3</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -699,16 +712,16 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="5">
         <v>-0.05</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>0.47</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="5">
         <v>0.53</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -716,16 +729,16 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="5">
         <v>0.34</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -733,16 +746,16 @@
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="5">
         <v>0.32</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5">
         <v>0.38</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -750,16 +763,16 @@
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="5">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="5">
         <v>0.27</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -767,16 +780,16 @@
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="8">
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -784,16 +797,16 @@
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="5">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="8">
+      <c r="C11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="5">
         <v>0.41</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -801,16 +814,16 @@
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="5">
         <v>0.44</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="8">
+      <c r="C12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="5">
         <v>0.34</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -818,16 +831,16 @@
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="5">
         <v>0.03</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="6">
         <v>0.21</v>
       </c>
-      <c r="D13" s="8">
-        <v>0.46</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="D13" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -835,16 +848,16 @@
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="5">
         <v>0.12</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="6">
         <v>0.06</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="5">
         <v>0.19</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -852,16 +865,16 @@
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="5">
         <v>0.21</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="C15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="5">
         <v>0.47</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -869,16 +882,16 @@
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="5">
         <v>0.33</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="8">
+      <c r="C16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="5">
         <v>0.45</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -886,16 +899,16 @@
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="5">
         <v>-0.09</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="6">
         <v>0.6</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="5">
         <v>0.08</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="6">
         <v>0.11</v>
       </c>
     </row>
@@ -903,16 +916,16 @@
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="5">
         <v>0.2</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="8">
+      <c r="C18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="5">
         <v>0.35</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -920,16 +933,16 @@
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="5">
         <v>0.19</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="8">
+      <c r="C19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="5">
         <v>0.42</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -937,33 +950,33 @@
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="5">
         <v>0.04</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="6">
         <v>0.17</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="5">
         <v>0.04</v>
       </c>
-      <c r="E20" s="9">
-        <v>1.2E-2</v>
+      <c r="E20" s="6">
+        <v>0.16</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="5">
         <v>0.16</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="8">
+      <c r="C21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="5">
         <v>0.1</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="6">
         <v>0.09</v>
       </c>
     </row>
@@ -971,16 +984,16 @@
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="5">
         <v>0.17</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="8">
+      <c r="C22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="5">
         <v>0.1</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="6">
         <v>0.08</v>
       </c>
     </row>
@@ -996,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EF1205-9D8D-447A-906D-535A7108E4EE}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,357 +1020,314 @@
     <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5">
+        <v>25.7</v>
+      </c>
+      <c r="C2" s="10">
+        <v>26</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>28.19</v>
+      </c>
+      <c r="C3" s="10">
+        <v>30</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>14.99</v>
+      </c>
+      <c r="C4" s="5">
         <v>22</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="D4" s="5">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>35</v>
+      </c>
+      <c r="C5" s="5">
+        <v>35</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>23.818999999999999</v>
+      </c>
+      <c r="C6" s="5">
         <v>21</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15">
-        <v>0.49</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15">
-        <v>0.09</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15">
-        <v>0.47</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="D6" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="B7" s="5">
+        <v>26.2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>32</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="B8" s="5">
+        <v>24.5</v>
+      </c>
+      <c r="C8" s="5">
+        <v>19</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="B9" s="5">
+        <v>35</v>
+      </c>
+      <c r="C9" s="5">
+        <v>35</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="B10" s="5">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5">
+        <v>19</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="B11" s="5">
+        <v>35</v>
+      </c>
+      <c r="C11" s="5">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15">
-        <v>0.21</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="B12" s="5">
+        <v>35</v>
+      </c>
+      <c r="C12" s="5">
+        <v>35</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="B13" s="5">
+        <v>35</v>
+      </c>
+      <c r="C13" s="5">
+        <v>35</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="B14" s="5">
+        <v>35</v>
+      </c>
+      <c r="C14" s="5">
+        <v>35</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="B15" s="5">
+        <v>35</v>
+      </c>
+      <c r="C15" s="5">
+        <v>35</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="B16" s="5">
+        <v>35</v>
+      </c>
+      <c r="C16" s="5">
+        <v>35</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="B17" s="5">
+        <v>35</v>
+      </c>
+      <c r="C17" s="5">
+        <v>35</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="B18" s="5">
+        <v>35</v>
+      </c>
+      <c r="C18" s="5">
+        <v>35</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15">
-        <v>0.17</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="B19" s="5">
+        <v>35</v>
+      </c>
+      <c r="C19" s="5">
+        <v>35</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="B20" s="5">
+        <v>35</v>
+      </c>
+      <c r="C20" s="5">
+        <v>35</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15">
-        <v>0.08</v>
+      <c r="B21" s="5">
+        <v>35</v>
+      </c>
+      <c r="C21" s="5">
+        <v>35</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCB505B-E64A-4B9B-8624-FC5654CF6FDA}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E22"/>
+      <selection activeCell="B1" sqref="B1:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1365,309 +1335,248 @@
     <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="B2" s="5">
+        <v>239</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15">
-        <v>0.49</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="B3" s="5">
+        <v>232</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15">
-        <v>0.09</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="B4" s="5">
+        <v>280</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15">
-        <v>0.47</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="B5" s="5">
+        <v>223</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="B6" s="5">
+        <v>32</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="B7" s="5">
+        <v>34</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="B8" s="5">
+        <v>50.5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="B9" s="5">
+        <v>274</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="B10" s="5">
+        <v>273</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="B11" s="5">
+        <v>300</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15">
-        <v>0.21</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="B12" s="5">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="B13" s="5">
+        <v>185</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="B14" s="5">
+        <v>169</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="B15" s="5">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="B16" s="5">
+        <v>20</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="B17" s="5">
+        <v>11</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="B18" s="5">
+        <v>33</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15">
-        <v>0.17</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="B19" s="5">
+        <v>129</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="B20" s="5">
+        <v>120</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15">
-        <v>0.08</v>
+      <c r="B21" s="5">
+        <v>169</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF495A1-A59A-4242-B692-1B9A35A2907A}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E22"/>
+      <selection activeCell="B1" sqref="B1:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,299 +1584,1107 @@
     <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5">
+        <v>67</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>96</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>111</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>55</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>207</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>252</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>233</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>110</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>90</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>162</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>206</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>117</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="5">
+        <v>206</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5">
+        <v>190</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <v>136</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
+        <v>172</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
+        <v>152</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5">
+        <v>139</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
+        <v>224</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="5">
+        <v>228</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5634ABED-60BD-4E1F-A672-709A58B61148}">
+  <dimension ref="A1:L23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="11" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="G3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="B4" s="5">
+        <v>25.7</v>
+      </c>
+      <c r="C4" s="10">
+        <v>26</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="E4" s="5">
+        <v>239</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="5">
+        <v>67</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15">
+      <c r="B5" s="5">
+        <v>28.19</v>
+      </c>
+      <c r="C5" s="10">
+        <v>30</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E5" s="5">
+        <v>232</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="5">
+        <v>96</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="5">
+        <v>-0.05</v>
+      </c>
+      <c r="J5" s="6">
         <v>0.49</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="K5" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15">
+      <c r="B6" s="5">
+        <v>14.99</v>
+      </c>
+      <c r="C6" s="5">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="E6" s="5">
+        <v>280</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="5">
+        <v>111</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="5">
         <v>0.09</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="J6" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15">
+      <c r="B7" s="5">
+        <v>35</v>
+      </c>
+      <c r="C7" s="5">
+        <v>35</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="E7" s="5">
+        <v>223</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="5">
+        <v>55</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="5">
+        <v>-0.05</v>
+      </c>
+      <c r="J7" s="6">
         <v>0.47</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="K7" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="B8" s="5">
+        <v>23.818999999999999</v>
+      </c>
+      <c r="C8" s="5">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="5">
+        <v>32</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="5">
+        <v>207</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.34</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="B9" s="5">
+        <v>26.2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>32</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="E9" s="5">
+        <v>34</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="5">
+        <v>252</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="B10" s="5">
+        <v>24.5</v>
+      </c>
+      <c r="C10" s="5">
+        <v>19</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="E10" s="5">
+        <v>50.5</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="5">
+        <v>233</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="B11" s="5">
+        <v>35</v>
+      </c>
+      <c r="C11" s="5">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="E11" s="5">
+        <v>274</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="5">
+        <v>110</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="B12" s="5">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5">
+        <v>19</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="E12" s="5">
+        <v>273</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="5">
+        <v>90</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="B13" s="5">
+        <v>35</v>
+      </c>
+      <c r="C13" s="5">
+        <v>35</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="E13" s="5">
+        <v>300</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="5">
+        <v>162</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.34</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15">
+      <c r="B14" s="5">
+        <v>35</v>
+      </c>
+      <c r="C14" s="5">
+        <v>35</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="E14" s="5">
+        <v>20</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="5">
+        <v>206</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="J14" s="6">
         <v>0.21</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="K14" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15">
+      <c r="B15" s="5">
+        <v>35</v>
+      </c>
+      <c r="C15" s="5">
+        <v>35</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="E15" s="5">
+        <v>185</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="G15" s="5">
+        <v>117</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="J15" s="6">
         <v>0.06</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="K15" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="B16" s="5">
+        <v>35</v>
+      </c>
+      <c r="C16" s="5">
+        <v>35</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="E16" s="5">
+        <v>169</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="G16" s="5">
+        <v>206</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.47</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="B17" s="5">
+        <v>35</v>
+      </c>
+      <c r="C17" s="5">
+        <v>35</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="5">
+        <v>190</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15">
+      <c r="B18" s="5">
+        <v>35</v>
+      </c>
+      <c r="C18" s="5">
+        <v>35</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="E18" s="5">
+        <v>20</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="5">
+        <v>136</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="I18" s="5">
+        <v>-0.09</v>
+      </c>
+      <c r="J18" s="6">
         <v>0.6</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15">
+      <c r="K18" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="L18" s="6">
         <v>0.11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="B19" s="5">
+        <v>35</v>
+      </c>
+      <c r="C19" s="5">
+        <v>35</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="E19" s="5">
+        <v>11</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="5">
+        <v>172</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="B20" s="5">
+        <v>35</v>
+      </c>
+      <c r="C20" s="5">
+        <v>35</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="E20" s="5">
+        <v>33</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="5">
+        <v>152</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15">
+      <c r="B21" s="5">
+        <v>35</v>
+      </c>
+      <c r="C21" s="5">
+        <v>35</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="E21" s="5">
+        <v>129</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="G21" s="5">
+        <v>139</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="J21" s="6">
         <v>0.17</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="K21" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15">
+      <c r="B22" s="5">
+        <v>35</v>
+      </c>
+      <c r="C22" s="5">
+        <v>35</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="E22" s="5">
+        <v>120</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G22" s="5">
+        <v>224</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="L22" s="6">
         <v>0.09</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15">
+      <c r="B23" s="5">
+        <v>35</v>
+      </c>
+      <c r="C23" s="5">
+        <v>35</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="E23" s="5">
+        <v>169</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="G23" s="5">
+        <v>228</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="L23" s="6">
         <v>0.08</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
+  <mergeCells count="8">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>